--- a/agents/SLEV/SLEV-Data-Contents.xlsx
+++ b/agents/SLEV/SLEV-Data-Contents.xlsx
@@ -51,7 +51,7 @@
     <t xml:space="preserve">text</t>
   </si>
   <si>
-    <t xml:space="preserve">This is not an agent/disease listed by the World Organisation for Animal Health (OIE). Geographical distribution can therefore not be mapped directly from any available reports. </t>
+    <t xml:space="preserve">This is not an agent/disease listed by the World Organisation for Animal Health (WOAH). Geographical distribution can therefore not be mapped directly from any available reports. </t>
   </si>
   <si>
     <t xml:space="preserve">sub-title</t>
@@ -207,7 +207,7 @@
     <t xml:space="preserve">Diagnosis</t>
   </si>
   <si>
-    <t xml:space="preserve">There are no OIE- recommended standard tests for StLouis.</t>
+    <t xml:space="preserve">There are no WOAH- recommended standard tests for StLouis.</t>
   </si>
   <si>
     <t xml:space="preserve">EFSA conducts regular systematic literature reviews covering peer-reviewed literature in English since 1970, covering diagnostic tests approved for use in the European Union (EU). </t>
@@ -447,7 +447,7 @@
     <t xml:space="preserve">ref001</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE-WAHIS (OIE World Animal Health Information System)</t>
+    <t xml:space="preserve">WOAH-WAHIS (WOAH World Animal Health Information System)</t>
   </si>
   <si>
     <t xml:space="preserve">https://wahis.oie.int/</t>
@@ -474,7 +474,7 @@
     <t xml:space="preserve">ref005</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health). Terrestrial Animal Health Code 2021. OIE, Paris, France</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health). Terrestrial Animal Health Code 2021. WOAH, Paris, France</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/en/what-we-do/standards/codes-and-manuals/terrestrial-code-online-access/?id=169&amp;L=0&amp;htmfile=chapitre_notification.htm</t>
@@ -501,7 +501,7 @@
     <t xml:space="preserve">ref008</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health) Technical Disease Card: African swine fever. 2021.</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health) Technical Disease Card: African swine fever. 2021.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/app/uploads/2021/03/oie-african-swine-fever-technical-disease-card.pdf</t>
@@ -510,7 +510,7 @@
     <t xml:space="preserve">ref009</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health), 2021. African Swine fever. Chapter 15.1. OIE Terrestrial Animal Health Code, Paris, France</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health), 2021. African Swine fever. Chapter 15.1. WOAH Terrestrial Animal Health Code, Paris, France</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/fileadmin/Home/eng/Health_standards/tahc/current/chapitre_asf.pdf</t>
@@ -519,7 +519,7 @@
     <t xml:space="preserve">ref010</t>
   </si>
   <si>
-    <t xml:space="preserve">OIE (World Organisation for Animal Health), 2019. African Swine fever. Chapter 3.08.01. OIE Terrestrial Manual, Paris, France</t>
+    <t xml:space="preserve">WOAH (World Organisation for Animal Health), 2019. African Swine fever. Chapter 3.08.01. WOAH Terrestrial Manual, Paris, France</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.oie.int/fileadmin/Home/eng/Health_standards/tahm/3.08.01_ASF.pdf</t>

--- a/agents/SLEV/SLEV-Data-Contents.xlsx
+++ b/agents/SLEV/SLEV-Data-Contents.xlsx
@@ -84,7 +84,7 @@
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref011:here}. Data fields are explained in this {ref012:read-me file}.</t>
   </si>
   <si>
-    <t xml:space="preserve">The review was last updated in January 2021. The complete list of references is available for download {ref013:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
+    <t xml:space="preserve">The review was last updated in January 2022. The complete list of references is available for download {ref013:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
     <t xml:space="preserve">map</t>
@@ -126,7 +126,7 @@
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref014:here}. Data fields are explained in this {ref015:read-me file}.</t>
   </si>
   <si>
-    <t xml:space="preserve">*The review was last updated in January 2021. The complete list of references is available for download {ref016:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
+    <t xml:space="preserve">*The review was last updated in January 2022. The complete list of references is available for download {ref016:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
     <t xml:space="preserve">Public Health</t>
@@ -138,7 +138,7 @@
     <t xml:space="preserve">HTML file</t>
   </si>
   <si>
-    <t xml:space="preserve">Impact-SLEV.html</t>
+    <t xml:space="preserve">ExperimentalInfections-SLEV.html</t>
   </si>
   <si>
     <t xml:space="preserve">Agent</t>
@@ -177,7 +177,7 @@
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref017:here}. Data fields are explained in this {ref018:read-me file}.</t>
   </si>
   <si>
-    <t xml:space="preserve">*The review was last updated in January 2021. The complete list of references is available for download {ref019:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
+    <t xml:space="preserve">*The review was last updated in January 2022. The complete list of references is available for download {ref019:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
     <t xml:space="preserve">Survival-SLEV.html</t>
@@ -234,7 +234,7 @@
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref020:here}. Data fields are explained in this {ref021:read-me file}.</t>
   </si>
   <si>
-    <t xml:space="preserve">The review was last updated in January 2021. The complete list of references is available for download {ref022:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
+    <t xml:space="preserve">The review was last updated in January 2022. The complete list of references is available for download {ref022:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
     <t xml:space="preserve">Diagnostic-SLEV.html</t>

--- a/agents/SLEV/SLEV-Data-Contents.xlsx
+++ b/agents/SLEV/SLEV-Data-Contents.xlsx
@@ -180,7 +180,7 @@
     <t xml:space="preserve">*The review was last updated in January 2022. The complete list of references is available for download {ref019:here}. If important references to primary studies are missing, contact {ref004:animal-diseases@efsa.europa.eu}. The full review protocol can be downloaded  {ref007:here}.</t>
   </si>
   <si>
-    <t xml:space="preserve">Survival-SLEV.html</t>
+    <t xml:space="preserve">PathogenSurvival-SLEV.html</t>
   </si>
   <si>
     <t xml:space="preserve">Transmission</t>

--- a/agents/SLEV/SLEV-Data-Contents.xlsx
+++ b/agents/SLEV/SLEV-Data-Contents.xlsx
@@ -309,7 +309,7 @@
     <t xml:space="preserve">EFSA conducts regular systematic literature reviews (SLR) covering all vaccine efficacy studies  published in peer-reviewed literature in English since 1970, when evaluating vaccines approved for use in the European Union. </t>
   </si>
   <si>
-    <t xml:space="preserve">No vaccines had been authorised for use in the EU by the European Medicine Agency at the time of the latest SLR.  The next update is planned for 2022.</t>
+    <t xml:space="preserve">No vaccines had been authorised for use in the EU by the European Medicine Agency at the time of the latest SLR.  The next update is planned for 2023.</t>
   </si>
   <si>
     <t xml:space="preserve">You can download all data collected through systematic literature review {ref023:here}, for pathogens which have available vaccines. Data fields are explained in this {ref024:read-me file}.</t>

--- a/agents/SLEV/SLEV-Data-Contents.xlsx
+++ b/agents/SLEV/SLEV-Data-Contents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\DiseaseProfiles\agents\SLEV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernanda.dorea\Documents\Azure\storymaps\agents\SLEV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCBA949-A7C9-400A-807C-5DB42B6AD787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A715EABE-5AEC-4158-9AED-379F8140A5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3620" yWindow="7860" windowWidth="7230" windowHeight="3980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -1105,13 +1105,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="C117" sqref="C117:D117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>4</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>5</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>6</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>7</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>8</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>2</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>3</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>4</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>5</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>6</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>7</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>8</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>9</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>10</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>11</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>12</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>13</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>14</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>15</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -1791,7 +1791,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>6</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>7</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>8</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>9</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>10</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>11</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>12</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>13</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>14</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>15</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>4</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>6</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>7</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>8</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>9</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>10</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>11</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>3</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>4</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>5</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>6</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>7</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>8</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>9</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>10</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>11</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>12</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>3</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>4</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>5</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>6</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>7</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>8</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>9</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>10</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>11</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>12</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>3</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>4</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>5</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>6</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>7</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>8</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>9</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>10</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>3</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>4</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>5</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>6</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>7</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>3</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>4</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>5</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>6</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>7</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>8</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>9</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>10</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>11</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>12</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>13</v>
       </c>
@@ -3091,16 +3091,16 @@
         <v>10</v>
       </c>
       <c r="C117">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="E117" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>3</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>4</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>5</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>6</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>7</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>3</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>4</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>3</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>4</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>5</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>6</v>
       </c>
@@ -3423,7 +3423,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>7</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>8</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>9</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>10</v>
       </c>
@@ -3503,9 +3503,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>143</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>146</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>149</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>152</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>155</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>158</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>161</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>164</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>167</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>170</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>173</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>176</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>179</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>182</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>185</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>188</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>191</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>194</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>197</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>200</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>203</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>206</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>209</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>212</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>215</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>218</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>221</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>224</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>227</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>230</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>233</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>236</v>
       </c>
